--- a/скрипты sigrity/Цепи.xlsx
+++ b/скрипты sigrity/Цепи.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\пособие\tcl\sigrity-rus\скрипты sigrity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8F46B3-2942-488E-B419-EE7844B22C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA7930B-A758-41FF-B422-A8D6C2451DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{0196DD04-2442-4CDD-80D0-67574F866955}"/>
+    <workbookView minimized="1" xWindow="-19410" yWindow="4880" windowWidth="21160" windowHeight="14520" activeTab="3" xr2:uid="{0196DD04-2442-4CDD-80D0-67574F866955}"/>
   </bookViews>
   <sheets>
     <sheet name=" Перенос в другую папку" sheetId="2" r:id="rId1"/>
     <sheet name="Соединить цепи" sheetId="3" r:id="rId2"/>
     <sheet name="Новое название цепи" sheetId="4" r:id="rId3"/>
-    <sheet name="Лист3" sheetId="5" r:id="rId4"/>
-    <sheet name="не диф пары" sheetId="6" r:id="rId5"/>
-    <sheet name="Диф пара" sheetId="1" r:id="rId6"/>
+    <sheet name="Цепи питания" sheetId="7" r:id="rId4"/>
+    <sheet name="Лист3" sheetId="5" r:id="rId5"/>
+    <sheet name="не диф пары" sheetId="6" r:id="rId6"/>
+    <sheet name="Диф пара" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="120">
   <si>
     <t xml:space="preserve">} {!} </t>
   </si>
@@ -355,6 +356,51 @@
   <si>
     <t>PCI2_TX21_P</t>
   </si>
+  <si>
+    <t>SERV_RCLK</t>
+  </si>
+  <si>
+    <t>UNNAMED_4_GEN3V3_I55_OUT</t>
+  </si>
+  <si>
+    <t>sigrity::move net {PowerNets} {</t>
+  </si>
+  <si>
+    <t>UNNAMED_33_C0402T10_I181_A</t>
+  </si>
+  <si>
+    <t>UNNAMED_33_C0402T10_I180_B</t>
+  </si>
+  <si>
+    <t>UNNAMED_33_C0402T10_I147_A</t>
+  </si>
+  <si>
+    <t>UNNAMED_33_C0402T10_I146_B</t>
+  </si>
+  <si>
+    <t>UNNAMED_33_C0402T10_I123_B</t>
+  </si>
+  <si>
+    <t>UNNAMED_33_C0402T10_I120_A</t>
+  </si>
+  <si>
+    <t>UNNAMED_33_C0402T10_I55_A</t>
+  </si>
+  <si>
+    <t>UNNAMED_33_C0402T10_I37_A</t>
+  </si>
+  <si>
+    <t>UNNAMED_39_C0402T10_I65_A</t>
+  </si>
+  <si>
+    <t>UNNAMED_39_C0402T10_I63_A</t>
+  </si>
+  <si>
+    <t>UNNAMED_27_C0402T10_I61_A</t>
+  </si>
+  <si>
+    <t>UNNAMED_27_C0402T10_I57_A</t>
+  </si>
 </sst>
 </file>
 
@@ -426,7 +472,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,6 +527,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -494,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -519,6 +571,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1015,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="3" t="str">
-        <f>_xlfn.CONCAT(D6:H6)</f>
+        <f t="shared" ref="I6:I33" si="0">_xlfn.CONCAT(D6:H6)</f>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {LGMII21_OUT_M} {!} </v>
       </c>
       <c r="J6" s="2"/>
@@ -1057,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="3" t="str">
-        <f>_xlfn.CONCAT(D7:H7)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {LGMII21_OUT_P} {!} </v>
       </c>
       <c r="J7" s="2"/>
@@ -1099,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="3" t="str">
-        <f>_xlfn.CONCAT(D8:H8)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {LSGMII_RX21_M} {!} </v>
       </c>
       <c r="J8" s="2"/>
@@ -1141,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="3" t="str">
-        <f>_xlfn.CONCAT(D9:H9)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {LSGMII_RX21_P} {!} </v>
       </c>
       <c r="J9" s="2"/>
@@ -1183,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="3" t="str">
-        <f>_xlfn.CONCAT(D10:H10)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {SGMII_TX19_P} {!} </v>
       </c>
       <c r="J10" s="2"/>
@@ -1225,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="3" t="str">
-        <f>_xlfn.CONCAT(D11:H11)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {SGMII_TX19_M} {!} </v>
       </c>
       <c r="J11" s="2"/>
@@ -1267,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="3" t="str">
-        <f>_xlfn.CONCAT(D12:H12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {SGMII_TX20_M} {!} </v>
       </c>
       <c r="J12" s="2"/>
@@ -1309,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="3" t="str">
-        <f>_xlfn.CONCAT(D13:H13)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {SGMII_TX20_P} {!} </v>
       </c>
       <c r="J13" s="2"/>
@@ -1351,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3" t="str">
-        <f>_xlfn.CONCAT(D14:H14)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {SGMII_TX21_P} {!} </v>
       </c>
       <c r="J14" s="2"/>
@@ -1393,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="3" t="str">
-        <f>_xlfn.CONCAT(D15:H15)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {SGMII_TX21_M} {!} </v>
       </c>
       <c r="J15" s="2"/>
@@ -1435,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="3" t="str">
-        <f>_xlfn.CONCAT(D16:H16)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {QSGMII_TX5_P} {!} </v>
       </c>
       <c r="J16" s="2"/>
@@ -1477,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="3" t="str">
-        <f>_xlfn.CONCAT(D17:H17)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {QSGMII_TX5_M} {!} </v>
       </c>
       <c r="J17" s="2"/>
@@ -1519,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="3" t="str">
-        <f>_xlfn.CONCAT(D18:H18)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {GMII19_OUT_M} {!} </v>
       </c>
       <c r="J18" s="2"/>
@@ -1561,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="3" t="str">
-        <f>_xlfn.CONCAT(D19:H19)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {GMII19_OUT_P} {!} </v>
       </c>
       <c r="J19" s="2"/>
@@ -1603,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="3" t="str">
-        <f>_xlfn.CONCAT(D20:H20)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_GMII20_OUT_P} {!} </v>
       </c>
       <c r="J20" s="2"/>
@@ -1645,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="3" t="str">
-        <f>_xlfn.CONCAT(D21:H21)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_GMII20_OUT_M} {!} </v>
       </c>
       <c r="J21" s="2"/>
@@ -1672,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f t="shared" ref="E22:E61" si="0">E19</f>
+        <f t="shared" ref="E22:E61" si="1">E19</f>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -1685,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="3" t="str">
-        <f>_xlfn.CONCAT(D22:H22)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_QGMII5_OUT_M} {!} </v>
       </c>
       <c r="J22" s="1"/>
@@ -1712,7 +1765,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -1725,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="3" t="str">
-        <f>_xlfn.CONCAT(D23:H23)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_QGMII5_OUT_P} {!} </v>
       </c>
       <c r="J23" s="1"/>
@@ -1752,7 +1805,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -1765,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="3" t="str">
-        <f>_xlfn.CONCAT(D24:H24)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_GMII21_OUT_P} {!} </v>
       </c>
       <c r="J24" s="1"/>
@@ -1792,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1805,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="3" t="str">
-        <f>_xlfn.CONCAT(D25:H25)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_GMII21_OUT_M} {!} </v>
       </c>
       <c r="J25" s="1"/>
@@ -1832,7 +1885,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -1845,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="3" t="str">
-        <f>_xlfn.CONCAT(D26:H26)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_SGMII_RX20_M} {!} </v>
       </c>
       <c r="J26" s="1"/>
@@ -1872,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -1885,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="3" t="str">
-        <f>_xlfn.CONCAT(D27:H27)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_SGMII_RX20_P} {!} </v>
       </c>
       <c r="J27" s="1"/>
@@ -1912,7 +1965,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -1925,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="3" t="str">
-        <f>_xlfn.CONCAT(D28:H28)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_SGMII_RX20_M} {!} </v>
       </c>
       <c r="J28" s="1"/>
@@ -1952,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -1965,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="3" t="str">
-        <f>_xlfn.CONCAT(D29:H29)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_SGMII_RX20_P} {!} </v>
       </c>
       <c r="J29" s="1"/>
@@ -1992,7 +2045,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -2005,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="3" t="str">
-        <f>_xlfn.CONCAT(D30:H30)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_SGMII_RX19_P} {!} </v>
       </c>
       <c r="J30" s="1"/>
@@ -2032,7 +2085,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -2045,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="3" t="str">
-        <f>_xlfn.CONCAT(D31:H31)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_SGMII_RX19_M} {!} </v>
       </c>
       <c r="J31" s="1"/>
@@ -2072,7 +2125,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -2085,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="3" t="str">
-        <f>_xlfn.CONCAT(D32:H32)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_SGMII_RX21_P} {!} </v>
       </c>
       <c r="J32" s="1"/>
@@ -2112,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -2125,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="3" t="str">
-        <f>_xlfn.CONCAT(D33:H33)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_SGMII_RX21_M} {!} </v>
       </c>
       <c r="J33" s="1"/>
@@ -2152,7 +2205,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -2165,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="3" t="str">
-        <f t="shared" ref="I34:I41" si="1">_xlfn.CONCAT(D34:H34)</f>
+        <f t="shared" ref="I34:I41" si="2">_xlfn.CONCAT(D34:H34)</f>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {QGMII5_OUT_M} {!} </v>
       </c>
       <c r="J34" s="1"/>
@@ -2192,7 +2245,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -2205,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {QGMII5_OUT_P} {!} </v>
       </c>
       <c r="J35" s="1"/>
@@ -2232,7 +2285,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -2245,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {QSGMII_RX5_M} {!} </v>
       </c>
       <c r="J36" s="1"/>
@@ -2272,7 +2325,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -2285,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {QSGMII_RX5_P} {!} </v>
       </c>
       <c r="J37" s="1"/>
@@ -2312,7 +2365,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -2325,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {SGMII_RX19_M} {!} </v>
       </c>
       <c r="J38" s="1"/>
@@ -2352,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -2365,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {SGMII_RX19_P} {!} </v>
       </c>
       <c r="J39" s="1"/>
@@ -2392,7 +2445,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -2405,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {SGMII_RX20_M} {!} </v>
       </c>
       <c r="J40" s="1"/>
@@ -2432,7 +2485,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -2445,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {SGMII_RX20_P} {!} </v>
       </c>
       <c r="J41" s="1"/>
@@ -2472,7 +2525,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -2485,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="3" t="str">
-        <f t="shared" ref="I42:I43" si="2">_xlfn.CONCAT(D42:H42)</f>
+        <f t="shared" ref="I42:I43" si="3">_xlfn.CONCAT(D42:H42)</f>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {GMII19_OUT_M} {!} </v>
       </c>
       <c r="J42" s="1"/>
@@ -2512,7 +2565,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -2525,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {GMII19_OUT_P} {!} </v>
       </c>
       <c r="J43" s="1"/>
@@ -2552,7 +2605,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -2565,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="3" t="str">
-        <f t="shared" ref="I44:I59" si="3">_xlfn.CONCAT(D44:H44)</f>
+        <f t="shared" ref="I44:I59" si="4">_xlfn.CONCAT(D44:H44)</f>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_GMII19_OUT_M} {!} </v>
       </c>
       <c r="J44" s="1"/>
@@ -2592,7 +2645,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -2605,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_GMII19_OUT_P} {!} </v>
       </c>
       <c r="J45" s="1"/>
@@ -2632,7 +2685,7 @@
         <v>2</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -2645,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_GMII20_OUT_M} {!} </v>
       </c>
       <c r="J46" s="1"/>
@@ -2672,7 +2725,7 @@
         <v>2</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -2685,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_GMII20_OUT_P} {!} </v>
       </c>
       <c r="J47" s="1"/>
@@ -2712,7 +2765,7 @@
         <v>2</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -2725,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_GMII21_OUT_M} {!} </v>
       </c>
       <c r="J48" s="1"/>
@@ -2752,7 +2805,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -2765,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_GMII21_OUT_P} {!} </v>
       </c>
       <c r="J49" s="1"/>
@@ -2792,7 +2845,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -2805,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_QGMII5_OUT_M} {!} </v>
       </c>
       <c r="J50" s="1"/>
@@ -2832,7 +2885,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -2845,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_QGMII5_OUT_P} {!} </v>
       </c>
       <c r="J51" s="1"/>
@@ -2872,7 +2925,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -2885,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_QGMII5_OUT_M} {!} </v>
       </c>
       <c r="J52" s="1"/>
@@ -2912,7 +2965,7 @@
         <v>2</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -2925,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_QGMII5_OUT_P} {!} </v>
       </c>
       <c r="J53" s="1"/>
@@ -2952,7 +3005,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -2965,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_SGMII_RX19_M} {!} </v>
       </c>
       <c r="J54" s="1"/>
@@ -2992,7 +3045,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -3005,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_SGMII_RX19_P} {!} </v>
       </c>
       <c r="J55" s="1"/>
@@ -3032,7 +3085,7 @@
         <v>2</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -3045,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_SGMII_RX20_M} {!} </v>
       </c>
       <c r="J56" s="1"/>
@@ -3072,7 +3125,7 @@
         <v>2</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -3085,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_SGMII_RX20_P} {!} </v>
       </c>
       <c r="J57" s="1"/>
@@ -3112,7 +3165,7 @@
         <v>2</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -3125,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_SGMII_RX21_P} {!} </v>
       </c>
       <c r="J58" s="1"/>
@@ -3152,7 +3205,7 @@
         <v>2</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -3165,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_SGMII_RX21_M} {!} </v>
       </c>
       <c r="J59" s="1"/>
@@ -3192,7 +3245,7 @@
         <v>2</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -3205,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="3" t="str">
-        <f t="shared" ref="I60:I61" si="4">_xlfn.CONCAT(D60:H60)</f>
+        <f t="shared" ref="I60:I61" si="5">_xlfn.CONCAT(D60:H60)</f>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_QSGMII_RX5_M} {!} </v>
       </c>
       <c r="J60" s="1"/>
@@ -3232,7 +3285,7 @@
         <v>2</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SG_SIGNAL(20)</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -3245,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">sigrity::move net {SG_SIGNAL(20)} {X_QSGMII_RX5_P} {!} </v>
       </c>
       <c r="J61" s="1"/>
@@ -27692,8 +27745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BC5B29-4BFC-4DD6-9F21-21EB50ABB64F}">
   <dimension ref="C11:U75"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -27745,7 +27798,7 @@
         <v>12</v>
       </c>
       <c r="M12" t="str">
-        <f>_xlfn.CONCAT(F12:L12)</f>
+        <f t="shared" ref="M12:M35" si="0">_xlfn.CONCAT(F12:L12)</f>
         <v>sigrity::merge net {PCI2_5_TX_P} {QGMII5_OUT_P} {QSGMII_TX5_P} {!}</v>
       </c>
     </row>
@@ -27772,7 +27825,7 @@
         <v>12</v>
       </c>
       <c r="M13" t="str">
-        <f>_xlfn.CONCAT(F13:L13)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::merge net {PCI2_20_OUT_P} {X_GMII20_OUT_P} {GMII20_OUT_P} {!}</v>
       </c>
     </row>
@@ -27799,7 +27852,7 @@
         <v>12</v>
       </c>
       <c r="M14" t="str">
-        <f>_xlfn.CONCAT(F14:L14)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::merge net {PCI2_5_OUT_M} {X_QGMII5_OUT_M} {QGMII5_OUT_M} {!}</v>
       </c>
     </row>
@@ -27826,7 +27879,7 @@
         <v>12</v>
       </c>
       <c r="M15" t="str">
-        <f>_xlfn.CONCAT(F15:L15)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::merge net {PCI2_5_OUT_P} {X_QGMII5_OUT_P} {QGMII5_OUT_P} {!}</v>
       </c>
     </row>
@@ -27853,7 +27906,7 @@
         <v>12</v>
       </c>
       <c r="M16" t="str">
-        <f>_xlfn.CONCAT(F16:L16)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::merge net {PCI2_19_OUT_P} {X_GMII19_OUT_P} {GMII19_OUT_P} {!}</v>
       </c>
     </row>
@@ -27880,7 +27933,7 @@
         <v>12</v>
       </c>
       <c r="M17" t="str">
-        <f>_xlfn.CONCAT(F17:L17)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::merge net {PCI2_19_OUT_M} {X_GMII19_OUT_M} {GMII19_OUT_M} {!}</v>
       </c>
     </row>
@@ -27907,7 +27960,7 @@
         <v>12</v>
       </c>
       <c r="M18" t="str">
-        <f>_xlfn.CONCAT(F18:L18)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::merge net {PCI2_21_OUT_P} {X_GMII21_OUT_P} {LGMII21_OUT_P} {!}</v>
       </c>
     </row>
@@ -27934,7 +27987,7 @@
         <v>12</v>
       </c>
       <c r="M19" t="str">
-        <f>_xlfn.CONCAT(F19:L19)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::merge net {PCI2_21_OUT_M} {X_GMII21_OUT_M} {LGMII21_OUT_M} {!}</v>
       </c>
     </row>
@@ -27961,7 +28014,7 @@
         <v>12</v>
       </c>
       <c r="M20" t="str">
-        <f>_xlfn.CONCAT(F20:L20)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::merge net {PCI2_RX20_M} {X_SGMII_RX20_M} {SGMII_RX20_M} {!}</v>
       </c>
     </row>
@@ -27988,7 +28041,7 @@
         <v>12</v>
       </c>
       <c r="M21" t="str">
-        <f>_xlfn.CONCAT(F21:L21)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::merge net {PCI2_RX20_P} {X_SGMII_RX20_P} {SGMII_RX20_P} {!}</v>
       </c>
     </row>
@@ -28015,7 +28068,7 @@
         <v>12</v>
       </c>
       <c r="M22" t="str">
-        <f>_xlfn.CONCAT(F22:L22)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::merge net {PCI2_RX5_M} {X_QSGMII_RX5_M} {QSGMII_RX5_M} {!}</v>
       </c>
     </row>
@@ -28042,7 +28095,7 @@
         <v>12</v>
       </c>
       <c r="M23" t="str">
-        <f>_xlfn.CONCAT(F23:L23)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::merge net {PCI2_RX5_P} {X_QSGMII_RX5_P} {QSGMII_RX5_P} {!}</v>
       </c>
     </row>
@@ -28069,7 +28122,7 @@
         <v>12</v>
       </c>
       <c r="M24" t="str">
-        <f>_xlfn.CONCAT(F24:L24)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::merge net {PCI2_RX19_P} {X_SGMII_RX19_P} {SGMII_RX19_P} {!}</v>
       </c>
     </row>
@@ -28096,7 +28149,7 @@
         <v>12</v>
       </c>
       <c r="M25" t="str">
-        <f>_xlfn.CONCAT(F25:L25)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::merge net {PCI2_RX19_M} {X_SGMII_RX19_M} {SGMII_RX19_M} {!}</v>
       </c>
     </row>
@@ -28123,7 +28176,7 @@
         <v>12</v>
       </c>
       <c r="M26" t="str">
-        <f>_xlfn.CONCAT(F26:L26)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::merge net {PCI2_RX21_M} {X_SGMII_RX21_P} {LSGMII_RX21_P} {!}</v>
       </c>
     </row>
@@ -28150,7 +28203,7 @@
         <v>12</v>
       </c>
       <c r="M27" t="str">
-        <f>_xlfn.CONCAT(F27:L27)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::merge net {PCI2_RX21_P} {X_SGMII_RX21_M} {LSGMII_RX21_M} {!}</v>
       </c>
     </row>
@@ -28178,7 +28231,7 @@
         <v>12</v>
       </c>
       <c r="M28" t="str">
-        <f>_xlfn.CONCAT(F28:L28)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::merge net {PCI2_TX5_P} {QGMII5_OUT_P} {QSGMII_TX5_P} {!}</v>
       </c>
     </row>
@@ -28205,7 +28258,7 @@
         <v>12</v>
       </c>
       <c r="M29" t="str">
-        <f>_xlfn.CONCAT(F29:L29)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::merge net {PCI2_TX5_M} {QGMII5_OUT_M} {QSGMII_TX5_M} {!}</v>
       </c>
     </row>
@@ -28232,7 +28285,7 @@
         <v>12</v>
       </c>
       <c r="M30" t="str">
-        <f>_xlfn.CONCAT(F30:L30)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::merge net {PCI2_TX19_M} {GMII19_OUT_M} {SGMII_TX19_M} {!}</v>
       </c>
     </row>
@@ -28259,7 +28312,7 @@
         <v>12</v>
       </c>
       <c r="M31" t="str">
-        <f>_xlfn.CONCAT(F31:L31)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::merge net {PCI2_TX19_P} {GMII19_OUT_P} {SGMII_TX19_P} {!}</v>
       </c>
     </row>
@@ -28286,7 +28339,7 @@
         <v>12</v>
       </c>
       <c r="M32" t="str">
-        <f>_xlfn.CONCAT(F32:L32)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::merge net {PCI2_TX20_M} {GMII20_OUT_M} {SGMII_TX20_M} {!}</v>
       </c>
     </row>
@@ -28313,7 +28366,7 @@
         <v>12</v>
       </c>
       <c r="M33" t="str">
-        <f>_xlfn.CONCAT(F33:L33)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::merge net {PCI2_TX20_P} {GMII20_OUT_P} {SGMII_TX20_P} {!}</v>
       </c>
     </row>
@@ -28340,7 +28393,7 @@
         <v>12</v>
       </c>
       <c r="M34" t="str">
-        <f>_xlfn.CONCAT(F34:L34)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::merge net {PCI2_RX21_M} {LSGMII_RX21_M} {SGMII_RX21_M} {!}</v>
       </c>
     </row>
@@ -28367,7 +28420,7 @@
         <v>12</v>
       </c>
       <c r="M35" t="str">
-        <f>_xlfn.CONCAT(F35:L35)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::merge net {PCI2_RX21_P} {LSGMII_RX21_P} {SGMII_RX21_P} {!}</v>
       </c>
     </row>
@@ -28403,7 +28456,7 @@
         <v>12</v>
       </c>
       <c r="M39" s="16" t="str">
-        <f>_xlfn.CONCAT(F39:L39)</f>
+        <f t="shared" ref="M39:M51" si="1">_xlfn.CONCAT(F39:L39)</f>
         <v>sigrity::merge net {PCI2_21_OUT_P} {SGMII_TX21_P} {PCI2_21_OUT_P} {!}</v>
       </c>
       <c r="N39" s="16"/>
@@ -28439,7 +28492,7 @@
         <v>12</v>
       </c>
       <c r="M40" t="str">
-        <f>_xlfn.CONCAT(F40:L40)</f>
+        <f t="shared" si="1"/>
         <v>sigrity::merge net {PCI2_20_OUT_M} {X_GMII20_OUT_M} {GMII20_OUT_M} {!}</v>
       </c>
     </row>
@@ -28466,7 +28519,7 @@
         <v>12</v>
       </c>
       <c r="M41" t="str">
-        <f>_xlfn.CONCAT(F41:L41)</f>
+        <f t="shared" si="1"/>
         <v>sigrity::merge net {PCI2_RX21_M} {SGMII_RX21_P} {PCI2_RX21_M} {!}</v>
       </c>
     </row>
@@ -28493,7 +28546,7 @@
         <v>12</v>
       </c>
       <c r="M42" t="str">
-        <f>_xlfn.CONCAT(F42:L42)</f>
+        <f t="shared" si="1"/>
         <v>sigrity::merge net {PCI2_RX21_P} {PCI2_RX21_P} {SGMII_RX21_M} {!}</v>
       </c>
     </row>
@@ -28520,7 +28573,7 @@
         <v>12</v>
       </c>
       <c r="M43" t="str">
-        <f>_xlfn.CONCAT(F43:L43)</f>
+        <f t="shared" si="1"/>
         <v>sigrity::merge net {PCI2_TX20_P} {PCI2_20_OUT_P} {SGMII_TX20_P} {!}</v>
       </c>
     </row>
@@ -28547,7 +28600,7 @@
         <v>12</v>
       </c>
       <c r="M44" t="str">
-        <f>_xlfn.CONCAT(F44:L44)</f>
+        <f t="shared" si="1"/>
         <v>sigrity::merge net {PCI2_TX19_P} {PCI2_19_OUT_P} {SGMII_TX19_P} {!}</v>
       </c>
     </row>
@@ -28574,7 +28627,7 @@
         <v>12</v>
       </c>
       <c r="M45" t="str">
-        <f>_xlfn.CONCAT(F45:L45)</f>
+        <f t="shared" si="1"/>
         <v>sigrity::merge net {PCI2_TX19_M} {PCI2_19_OUT_M} {SGMII_TX19_M} {!}</v>
       </c>
     </row>
@@ -28601,7 +28654,7 @@
         <v>12</v>
       </c>
       <c r="M46" t="str">
-        <f>_xlfn.CONCAT(F46:L46)</f>
+        <f t="shared" si="1"/>
         <v>sigrity::merge net {PCI2_TX5_M} {PCI2_5_OUT_M} {QSGMII_TX5_M} {!}</v>
       </c>
     </row>
@@ -28628,7 +28681,7 @@
         <v>12</v>
       </c>
       <c r="M47" t="str">
-        <f>_xlfn.CONCAT(F47:L47)</f>
+        <f t="shared" si="1"/>
         <v>sigrity::merge net {PCI2_TX5_P} {PCI2_5_OUT_P} {QSGMII_TX5_P} {!}</v>
       </c>
     </row>
@@ -28655,7 +28708,7 @@
         <v>12</v>
       </c>
       <c r="M48" t="str">
-        <f>_xlfn.CONCAT(F48:L48)</f>
+        <f t="shared" si="1"/>
         <v>sigrity::merge net {PCI2_TX20_M} {X_GMII20_OUT_M} {PCI2_TX20_M} {!}</v>
       </c>
     </row>
@@ -28682,7 +28735,7 @@
         <v>12</v>
       </c>
       <c r="M49" t="str">
-        <f>_xlfn.CONCAT(F49:L49)</f>
+        <f t="shared" si="1"/>
         <v>sigrity::merge net {PCI2_5_TX_P} {X_QGMII5_OUT_P} {PCI2_5_TX_P} {!}</v>
       </c>
     </row>
@@ -28709,7 +28762,7 @@
         <v>12</v>
       </c>
       <c r="M50" t="str">
-        <f>_xlfn.CONCAT(F50:L50)</f>
+        <f t="shared" si="1"/>
         <v>sigrity::merge net {PCI2_21_OUT_P} {PCI2_21_OUT_P} {X_GMII21_OUT_P} {!}</v>
       </c>
     </row>
@@ -28736,7 +28789,7 @@
         <v>12</v>
       </c>
       <c r="M51" t="str">
-        <f>_xlfn.CONCAT(F51:L51)</f>
+        <f t="shared" si="1"/>
         <v>sigrity::merge net {PCI2_21_OUT_M} {X_GMII21_OUT_M} {PCI2_21_OUT_M} {!}</v>
       </c>
     </row>
@@ -28909,15 +28962,21 @@
       <c r="F71" t="s">
         <v>13</v>
       </c>
-      <c r="G71" s="9"/>
+      <c r="G71" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="H71" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I71" s="9"/>
+      <c r="I71" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="J71" t="s">
         <v>1</v>
       </c>
-      <c r="K71" s="6"/>
+      <c r="K71" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="L71" t="s">
         <v>1</v>
       </c>
@@ -28925,8 +28984,8 @@
         <v>12</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" ref="P71:P73" si="0">_xlfn.CONCAT(F71:O71)</f>
-        <v>sigrity::merge net {} {} {} {} {!}</v>
+        <f t="shared" ref="P71:P73" si="2">_xlfn.CONCAT(F71:O71)</f>
+        <v>sigrity::merge net {SERV_RCLK} {SERV_RCLK} {UNNAMED_4_GEN3V3_I55_OUT} {} {!}</v>
       </c>
     </row>
     <row r="72" spans="6:17" ht="15.45" x14ac:dyDescent="0.4">
@@ -28949,7 +29008,7 @@
         <v>12</v>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sigrity::merge net {} {} {} {} {!}</v>
       </c>
     </row>
@@ -28973,7 +29032,7 @@
         <v>12</v>
       </c>
       <c r="P73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sigrity::merge net {} {} {} {} {!}</v>
       </c>
     </row>
@@ -28994,7 +29053,7 @@
   <dimension ref="E9:W44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -29122,7 +29181,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3" t="str">
-        <f>_xlfn.CONCAT(E23:K23)</f>
+        <f t="shared" ref="L23:L38" si="0">_xlfn.CONCAT(E23:K23)</f>
         <v xml:space="preserve">sigrity::update net name {PCI2_5_OUT_P} {PCI_5_OUT_P} {!} </v>
       </c>
       <c r="M23" s="2"/>
@@ -29148,7 +29207,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3" t="str">
-        <f>_xlfn.CONCAT(E24:K24)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::update net name {PCI2_20_OUT_P} {PCI_20_OUT_P} {!} </v>
       </c>
       <c r="M24" s="2"/>
@@ -29174,7 +29233,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="3" t="str">
-        <f>_xlfn.CONCAT(E25:K25)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::update net name {PCI2_5_OUT_M} {PCI_5_OUT_M} {!} </v>
       </c>
       <c r="M25" s="2"/>
@@ -29197,7 +29256,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3" t="str">
-        <f>_xlfn.CONCAT(E26:K26)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::update net name {PCI2_5_OUT_P} {PCI_5_OUT_P} {!} </v>
       </c>
       <c r="M26" s="2"/>
@@ -29220,7 +29279,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3" t="str">
-        <f>_xlfn.CONCAT(E27:K27)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::update net name {PCI2_19_OUT_P} {PCI_19_OUT_P} {!} </v>
       </c>
       <c r="M27" s="2"/>
@@ -29243,7 +29302,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="3" t="str">
-        <f>_xlfn.CONCAT(E28:K28)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::update net name {PCI2_19_OUT_M} {PCI_19_OUT_M} {!} </v>
       </c>
       <c r="M28" s="2"/>
@@ -29266,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3" t="str">
-        <f>_xlfn.CONCAT(E29:K29)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::update net name {PCI2_21_OUT_P} {PCI_21_OUT_P} {!} </v>
       </c>
       <c r="M29" s="2"/>
@@ -29289,7 +29348,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="3" t="str">
-        <f>_xlfn.CONCAT(E30:K30)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::update net name {PCI2_21_OUT_M} {PCI_21_OUT_M} {!} </v>
       </c>
       <c r="M30" s="2"/>
@@ -29312,7 +29371,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="3" t="str">
-        <f>_xlfn.CONCAT(E31:K31)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::update net name {PCI2_RX20_M} {PCI_RX20_M} {!} </v>
       </c>
       <c r="M31" s="2"/>
@@ -29335,7 +29394,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="3" t="str">
-        <f>_xlfn.CONCAT(E32:K32)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::update net name {PCI2_RX20_P} {PCI_RX20_P} {!} </v>
       </c>
       <c r="M32" s="2"/>
@@ -29358,7 +29417,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3" t="str">
-        <f>_xlfn.CONCAT(E33:K33)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::update net name {PCI2_RX5_M} {PCI_RX5_M} {!} </v>
       </c>
       <c r="M33" s="2"/>
@@ -29381,7 +29440,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="3" t="str">
-        <f>_xlfn.CONCAT(E34:K34)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::update net name {PCI2_RX5_P} {PCI_RX5_P} {!} </v>
       </c>
       <c r="M34" s="2"/>
@@ -29404,7 +29463,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="3" t="str">
-        <f>_xlfn.CONCAT(E35:K35)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::update net name {PCI2_RX19_P} {PCI_RX19_P} {!} </v>
       </c>
       <c r="M35" s="2"/>
@@ -29427,7 +29486,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="3" t="str">
-        <f>_xlfn.CONCAT(E36:K36)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::update net name {PCI2_RX19_M} {PCI_RX19_M} {!} </v>
       </c>
       <c r="M36" s="2"/>
@@ -29450,7 +29509,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="3" t="str">
-        <f>_xlfn.CONCAT(E37:K37)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::update net name {PCI2_RX21_M} {PCI_RX21_M} {!} </v>
       </c>
       <c r="M37" s="2"/>
@@ -29473,7 +29532,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="3" t="str">
-        <f>_xlfn.CONCAT(E38:K38)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">sigrity::update net name {PCI2_RX21_P} {PCI_RX21_P} {!} </v>
       </c>
       <c r="M38" s="2"/>
@@ -29536,6 +29595,253 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136222A9-D34F-4E29-9E72-BF7B6689D509}">
+  <dimension ref="I15:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L15:L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="9" max="9" width="31.61328125" customWidth="1"/>
+    <col min="10" max="10" width="29.69140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="15" spans="9:12" x14ac:dyDescent="0.4">
+      <c r="I15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" t="str">
+        <f>_xlfn.CONCAT(I15:K15)</f>
+        <v>sigrity::move net {PowerNets} {UNNAMED_33_C0402T10_I181_A} {!}</v>
+      </c>
+    </row>
+    <row r="16" spans="9:12" x14ac:dyDescent="0.4">
+      <c r="I16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" ref="L16:L26" si="0">_xlfn.CONCAT(I16:K16)</f>
+        <v>sigrity::move net {PowerNets} {UNNAMED_33_C0402T10_I180_B} {!}</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.4">
+      <c r="I17" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::move net {PowerNets} {UNNAMED_33_C0402T10_I147_A} {!}</v>
+      </c>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.4">
+      <c r="I18" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::move net {PowerNets} {UNNAMED_33_C0402T10_I146_B} {!}</v>
+      </c>
+    </row>
+    <row r="19" spans="9:12" x14ac:dyDescent="0.4">
+      <c r="I19" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::move net {PowerNets} {UNNAMED_33_C0402T10_I123_B} {!}</v>
+      </c>
+    </row>
+    <row r="20" spans="9:12" x14ac:dyDescent="0.4">
+      <c r="I20" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::move net {PowerNets} {UNNAMED_33_C0402T10_I120_A} {!}</v>
+      </c>
+    </row>
+    <row r="21" spans="9:12" x14ac:dyDescent="0.4">
+      <c r="I21" t="s">
+        <v>107</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::move net {PowerNets} {UNNAMED_33_C0402T10_I55_A} {!}</v>
+      </c>
+    </row>
+    <row r="22" spans="9:12" x14ac:dyDescent="0.4">
+      <c r="I22" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::move net {PowerNets} {UNNAMED_33_C0402T10_I37_A} {!}</v>
+      </c>
+    </row>
+    <row r="23" spans="9:12" x14ac:dyDescent="0.4">
+      <c r="I23" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="K23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::move net {PowerNets} {UNNAMED_39_C0402T10_I65_A} {!}</v>
+      </c>
+    </row>
+    <row r="24" spans="9:12" x14ac:dyDescent="0.4">
+      <c r="I24" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="K24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::move net {PowerNets} {UNNAMED_39_C0402T10_I63_A} {!}</v>
+      </c>
+    </row>
+    <row r="25" spans="9:12" x14ac:dyDescent="0.4">
+      <c r="I25" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::move net {PowerNets} {UNNAMED_27_C0402T10_I61_A} {!}</v>
+      </c>
+    </row>
+    <row r="26" spans="9:12" x14ac:dyDescent="0.4">
+      <c r="I26" t="s">
+        <v>107</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="K26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v>sigrity::move net {PowerNets} {UNNAMED_27_C0402T10_I57_A} {!}</v>
+      </c>
+    </row>
+    <row r="27" spans="9:12" x14ac:dyDescent="0.4">
+      <c r="I27" t="s">
+        <v>107</v>
+      </c>
+      <c r="K27" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" ref="L27:L30" si="1">_xlfn.CONCAT(I27:K27)</f>
+        <v>sigrity::move net {PowerNets} {} {!}</v>
+      </c>
+    </row>
+    <row r="28" spans="9:12" x14ac:dyDescent="0.4">
+      <c r="I28" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v>sigrity::move net {PowerNets} {} {!}</v>
+      </c>
+    </row>
+    <row r="29" spans="9:12" x14ac:dyDescent="0.4">
+      <c r="I29" t="s">
+        <v>107</v>
+      </c>
+      <c r="K29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v>sigrity::move net {PowerNets} {} {!}</v>
+      </c>
+    </row>
+    <row r="30" spans="9:12" x14ac:dyDescent="0.4">
+      <c r="I30" t="s">
+        <v>107</v>
+      </c>
+      <c r="K30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v>sigrity::move net {PowerNets} {} {!}</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9523C50A-BC67-4CFE-9DE3-C1EF5D28A2CE}">
   <dimension ref="J22:J37"/>
   <sheetViews>
@@ -29630,7 +29936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941265A4-5820-4677-BB01-9F44697B5C51}">
   <dimension ref="D14:X41"/>
   <sheetViews>
@@ -29699,7 +30005,7 @@
         <v>12</v>
       </c>
       <c r="J21" t="str">
-        <f>_xlfn.CONCAT(E21:I21)</f>
+        <f t="shared" ref="J21:J27" si="0">_xlfn.CONCAT(E21:I21)</f>
         <v>sigrity::delete DiffPair {QSGMII_TX5_P} {QSGMII_TX5_M} {!}</v>
       </c>
     </row>
@@ -29720,7 +30026,7 @@
         <v>12</v>
       </c>
       <c r="J22" t="str">
-        <f>_xlfn.CONCAT(E22:I22)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::delete DiffPair {SGMII_TX19_M} {SGMII_TX19_P} {!}</v>
       </c>
     </row>
@@ -29741,7 +30047,7 @@
         <v>12</v>
       </c>
       <c r="J23" t="str">
-        <f>_xlfn.CONCAT(E23:I23)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::delete DiffPair {SGMII_TX20_M} {SGMII_TX20_P} {!}</v>
       </c>
     </row>
@@ -29762,7 +30068,7 @@
         <v>12</v>
       </c>
       <c r="J24" t="str">
-        <f>_xlfn.CONCAT(E24:I24)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::delete DiffPair {SGMII_TX21_P} {SGMII_TX21_M} {!}</v>
       </c>
     </row>
@@ -29783,7 +30089,7 @@
         <v>12</v>
       </c>
       <c r="J25" t="str">
-        <f>_xlfn.CONCAT(E25:I25)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::delete DiffPair {QSGMII_TX5_P} {QSGMII_TX5_M} {!}</v>
       </c>
     </row>
@@ -29804,7 +30110,7 @@
         <v>12</v>
       </c>
       <c r="J26" t="str">
-        <f>_xlfn.CONCAT(E26:I26)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::delete DiffPair {X_SGMII_RX19_P} {X_SGMII_RX19_M} {!}</v>
       </c>
     </row>
@@ -29825,7 +30131,7 @@
         <v>12</v>
       </c>
       <c r="J27" t="str">
-        <f>_xlfn.CONCAT(E27:I27)</f>
+        <f t="shared" si="0"/>
         <v>sigrity::delete DiffPair {X_QSGMII_RX5_M} {X_QSGMII_RX5_P} {!}</v>
       </c>
     </row>
@@ -29846,7 +30152,7 @@
         <v>12</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" ref="J28:J41" si="0">_xlfn.CONCAT(E28:I28)</f>
+        <f t="shared" ref="J28:J41" si="1">_xlfn.CONCAT(E28:I28)</f>
         <v>sigrity::delete DiffPair {GMII19_OUT_M} {GMII19_OUT_P} {!}</v>
       </c>
     </row>
@@ -29867,7 +30173,7 @@
         <v>12</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sigrity::delete DiffPair {X_GMII20_OUT_P} {X_GMII20_OUT_M} {!}</v>
       </c>
     </row>
@@ -29888,7 +30194,7 @@
         <v>12</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sigrity::delete DiffPair {X_QGMII5_OUT_P} {X_QGMII5_OUT_M} {!}</v>
       </c>
     </row>
@@ -29909,7 +30215,7 @@
         <v>12</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sigrity::delete DiffPair {X_GMII21_OUT_P} {X_GMII21_OUT_M} {!}</v>
       </c>
     </row>
@@ -29930,7 +30236,7 @@
         <v>12</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sigrity::delete DiffPair {X_SGMII_RX20_M} {X_SGMII_RX20_P} {!}</v>
       </c>
     </row>
@@ -29951,7 +30257,7 @@
         <v>12</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sigrity::delete DiffPair {X_SGMII_RX21_P} {X_SGMII_RX21_M} {!}</v>
       </c>
     </row>
@@ -29972,7 +30278,7 @@
         <v>12</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sigrity::delete DiffPair {LGMII21_OUT_P} {LGMII21_OUT_M} {!}</v>
       </c>
     </row>
@@ -29993,7 +30299,7 @@
         <v>12</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sigrity::delete DiffPair {LSGMII_RX21_P} {LSGMII_RX21_M} {!}</v>
       </c>
     </row>
@@ -30015,7 +30321,7 @@
         <v>12</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sigrity::delete DiffPair {GMII20_OUT_M} {GMII20_OUT_P} {!}</v>
       </c>
     </row>
@@ -30036,7 +30342,7 @@
         <v>12</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sigrity::delete DiffPair {QGMII5_OUT_M} {QGMII5_OUT_P} {!}</v>
       </c>
     </row>
@@ -30057,7 +30363,7 @@
         <v>12</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sigrity::delete DiffPair {QSGMII_RX5_M} {QSGMII_RX5_P} {!}</v>
       </c>
     </row>
@@ -30078,7 +30384,7 @@
         <v>12</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sigrity::delete DiffPair {SGMII_RX19_P} {SGMII_RX19_M} {!}</v>
       </c>
     </row>
@@ -30099,7 +30405,7 @@
         <v>12</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sigrity::delete DiffPair {SGMII_RX20_M} {SGMII_RX20_P} {!}</v>
       </c>
     </row>
@@ -30120,7 +30426,7 @@
         <v>12</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sigrity::delete DiffPair {X_GMII19_OUT_M} {X_GMII19_OUT_P} {!}</v>
       </c>
     </row>
@@ -30129,11 +30435,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306ECFDD-EC7D-43B4-B0AF-7D280FDD3F21}">
   <dimension ref="F4:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="K20" sqref="K13:K20"/>
     </sheetView>
   </sheetViews>
